--- a/DOM_Banner/output/dept0713/Elizabeth Connick_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Elizabeth Connick_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Veterinary and Biomedical Sciences, University of Minnesota, St. Paul, Minnesota, United States of America.; Department of Veterinary and Biomedical Sciences, University of Minnesota, St. Paul, Minnesota, United States of America; Department of Veterinary and Biomedical Sciences, University of Minnesota, St. Paul, Minnesota, United States of America; Department of Veterinary and Biomedical Sciences, University of Minnesota, St. Paul, Minnesota, United States of America; Department of Veterinary and Biomedical Sciences, University of Minnesota, St. Paul, Minnesota, United States of America; Department of Veterinary and Biomedical Sciences, University of Minnesota, St. Paul, Minnesota, United States of America; Department of Veterinary and Biomedical Sciences, University of Minnesota, St. Paul, Minnesota, United States of America; Department of Veterinary and Biomedical Sciences, University of Minnesota, St. Paul, Minnesota, United States of America; Wisconsin National Primate Research Center, University of Wisconsin, Madison, Wisconsin, United States of America; Division of Infectious Diseases, University of Arizona, Tucson, Arizona, United States of America; Laboratory of Viral Diseases, NIAID, NIH, Bethesda, Maryland, United States of America; Department of Veterinary and Biomedical Sciences, University of Minnesota, St. Paul, Minnesota, United States of America</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220820993</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>CAR/CXCR5-T cell immunotherapy is safe and potentially efficacious in promoting sustained remission of SIV infection</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-02-07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>PLOS Pathogens</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Public Library of Science</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.ppat.1009831</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>public-domain</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35130312</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.ppat.1009831</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">Johns Hopkins University, Baltimore MD, USA.; Harvard T.H.Chan School of Public Health, Boston, MA, USA.; Brigham and Women's Hospital, Harvard Medical School, Boston, MA, USA.; University of North Carolina, Chapel Hill, NC, USA.; Ohio State University, Hilliard, OH, USA.; University at Buffalo, Buffalo, NY, USA.; University at Buffalo, Buffalo, NY, USA.; Merck Research Labs, Upper Gwynned, PA, USA.; Department of Infectious Disease and Vaccines, Merck and Co, West Point, PA, USA.; Department of Infectious Disease and Vaccines, Merck and Co, West Point, PA, USA.; ACTG Network Coordinating Center, Silver Spring, MD, USA.; Case Western Reserve University, Cleveland, OH, USA.; Whitman-Walker Health, Washington, DC, USA.; Brigham and Women's Hospital, Harvard Medical School, Boston, MA, USA.; Brigham and Women's Hospital, Harvard Medical School, Boston, MA, USA.; Case Western Reserve University, Cleveland, OH, USA.; University of California, San Francisco, CA, USA.; University of California, San Francisco, CA, USA.; Université de Montréal, Centre de Recherche du CHUM.; University of Arizona, Tuscon, AZ, USA.; Office of the Global AIDS Coordinator, Department of State, Washington, DC, USA.; Case Western Reserve University, Cleveland, OH, USA.; Brigham and Women's Hospital, Harvard Medical School, Boston, MA, USA.; Harvard T.H.Chan School of Public Health, Boston, MA, USA.; Massachusetts General Hospital, Harvard University, Boston, MA, USA.; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213206827</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Impact of Tamoxifen on Vorinostat-Induced Human Immunodeficiency Virus Expression in Women on Antiretroviral Therapy: AIDS Clinical Trials Group A5366, The MOXIE Trial</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-02-17</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Clinical Infectious Diseases</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciac136</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35176755</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciac136</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Division of Infectious Diseases, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Division of Infectious Diseases, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Division of Infectious Diseases, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Division of Infectious Diseases, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Division of Infectious Diseases, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4287091864</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>The Utility of (1→3)-β-D-Glucan Testing in the Diagnosis of Coccidioidomycosis in Hospitalized Immunocompromised Patients</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-07-25</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of Fungi</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof8080768</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35893136</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof8080768</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Laboratory of Adjuvant and Antigen Research, United States Military HIV Research Program, Walter Reed Army Institute of Research, Silver Spring, MD, United States; US Military Malaria Vaccine Program, Naval Medical Research Center, Silver Spring, MD, United States; Laboratory of Adjuvant and Antigen Research, United States Military HIV Research Program, Walter Reed Army Institute of Research, Silver Spring, MD, United States; Diagnostics and Countermeasure Branch, Walter Reed Army Institute of Research, Silver Spring, MD, United States; Diagnostics and Countermeasure Branch, Walter Reed Army Institute of Research, Silver Spring, MD, United States; Department of Surgery, University of Arizona, Tucson, AZ, United States; Department of Medicine, Feinberg School of Medicine, Northwestern University, Chicago, IL, United States; US Military Malaria Vaccine Program, Naval Medical Research Center, Silver Spring, MD, United States; Laboratory of Adjuvant and Antigen Research, United States Military HIV Research Program, Walter Reed Army Institute of Research, Silver Spring, MD, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310040230</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>HIV-1 infected humanized DRAGA mice develop HIV-specific antibodies despite lack of canonical germinal centers in secondary lymphoid tissues</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-11-25</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Frontiers in Immunology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fimmu.2022.1047277</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36505432</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fimmu.2022.1047277</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Charles R. Drew University of Medicine and Science (CDU), Los Angeles, CA; Joint Doctoral Program in Public Health, University of California, San Diego/San Diego State University, La Jolla, CA; Charles R. Drew University of Medicine and Science (CDU), Los Angeles, CA; Department of Education, Graduate School of Education and Psychology, Pepperdine University, Los Angeles, CA; Milton Park Clinical Research Site, Community Advisory Board, University of Zimbabwe Clinical Trials Research Center, Milton Park; ; Johns Hopkins University AIDS Clinical Trials Group Clinical Research Site, Community Advisory Board, Baltimore, MD; Joint Clinical Research Centre (JCRC)/Kampala Clinical Research Site, Kampala, Uganda; ; Infectious Diseases Division, Feinberg School of Medicine, Northwestern University, Chicago, IL; University of Pennsylvania, Philadelphia, PA; University of Arizona, Tuscon, AZ; ; Division of Infectious Diseases, Department of Medicine, Johns Hopkins University, Baltimore, MD; Division of Infectious Diseases and Global Public Health, Department of Medicine, University of California, San Diego (UCSD), La Jolla, CA; Division of Infectious Diseases and Global Public Health, Department of Medicine, University of California, San Diego (UCSD), La Jolla, CA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4295048088</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>A Community Call to Action to Prioritize Inclusion and Enrollment of Women in HIV Cure-related Research</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-09-02</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of Acquired Immune Deficiency Syndromes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/qai.0000000000003084</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36083494</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/qai.0000000000003084</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Medicine, Division of Infectious Diseases, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Infectious Diseases, University of Arizona, Tucson, AZ, United States; College of Medicine, University of Arizona, Tucson, AZ, United States; Department of Otolaryngology, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Infectious Diseases, University of Colorado, Aurora, CO, United States; Department of Surgery, Anschutz Medical Campus, University of Colorado Denver, Aurora, CO, United States; Feinberg School of Medicine, Northwestern University, Chicago, IL, United States; Department of Medicine, Division of Infectious Diseases, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308448405</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Follicular regulatory T cells eliminate HIV-1-infected follicular helper T cells in an IL-2 concentration dependent manner</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-11-07</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Frontiers in Immunology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fimmu.2022.878273</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36420277</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fimmu.2022.878273</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Elizabeth Connick_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Elizabeth Connick_2022.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -708,47 +708,47 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Matthew T Ollerton, Joy M. Folkvord, Kristina K. Peachman, Soumya Shashikumar, Elaine Morrison, Linda L. Jagodzinski, Sheila A. Peel, Mohammad Khreiss, Richard T. D’Aquila, Sofía Casares, Mangala Rao, Elizabeth Connick</t>
+          <t>Danielle Campbell, Portia D. Cowlings, Martha Tholanah, Mallery Jenna Robinson, Gail E. Graham, Scovia Aseru, Karine Dubé, Susan E. Cohn, Katharine J. Bar, Elizabeth Connick, Rosie Mngqbisa, Eileen P. Scully, Jamila K. Stockman, Sara Gianella</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Laboratory of Adjuvant and Antigen Research, United States Military HIV Research Program, Walter Reed Army Institute of Research, Silver Spring, MD, United States; US Military Malaria Vaccine Program, Naval Medical Research Center, Silver Spring, MD, United States; Laboratory of Adjuvant and Antigen Research, United States Military HIV Research Program, Walter Reed Army Institute of Research, Silver Spring, MD, United States; Diagnostics and Countermeasure Branch, Walter Reed Army Institute of Research, Silver Spring, MD, United States; Diagnostics and Countermeasure Branch, Walter Reed Army Institute of Research, Silver Spring, MD, United States; Department of Surgery, University of Arizona, Tucson, AZ, United States; Department of Medicine, Feinberg School of Medicine, Northwestern University, Chicago, IL, United States; US Military Malaria Vaccine Program, Naval Medical Research Center, Silver Spring, MD, United States; Laboratory of Adjuvant and Antigen Research, United States Military HIV Research Program, Walter Reed Army Institute of Research, Silver Spring, MD, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
+          <t>Charles R. Drew University of Medicine and Science (CDU), Los Angeles, CA; Joint Doctoral Program in Public Health, University of California, San Diego/San Diego State University, La Jolla, CA; Charles R. Drew University of Medicine and Science (CDU), Los Angeles, CA; Department of Education, Graduate School of Education and Psychology, Pepperdine University, Los Angeles, CA; Milton Park Clinical Research Site, Community Advisory Board, University of Zimbabwe Clinical Trials Research Center, Milton Park; ; Johns Hopkins University AIDS Clinical Trials Group Clinical Research Site, Community Advisory Board, Baltimore, MD; Joint Clinical Research Centre (JCRC)/Kampala Clinical Research Site, Kampala, Uganda; ; Infectious Diseases Division, Feinberg School of Medicine, Northwestern University, Chicago, IL; University of Pennsylvania, Philadelphia, PA; University of Arizona, Tuscon, AZ; ; Division of Infectious Diseases, Department of Medicine, Johns Hopkins University, Baltimore, MD; Division of Infectious Diseases and Global Public Health, Department of Medicine, University of California, San Diego (UCSD), La Jolla, CA; Division of Infectious Diseases and Global Public Health, Department of Medicine, University of California, San Diego (UCSD), La Jolla, CA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4310040230</t>
+          <t>https://openalex.org/W4295048088</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HIV-1 infected humanized DRAGA mice develop HIV-specific antibodies despite lack of canonical germinal centers in secondary lymphoid tissues</t>
+          <t>A Community Call to Action to Prioritize Inclusion and Enrollment of Women in HIV Cure-related Research</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-09-02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Frontiers in Immunology</t>
+          <t>Journal of Acquired Immune Deficiency Syndromes</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fimmu.2022.1047277</t>
+          <t>https://doi.org/10.1097/qai.0000000000003084</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36505432</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36083494</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fimmu.2022.1047277</t>
+          <t>https://doi.org/10.1097/qai.0000000000003084</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,47 +795,47 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Danielle Campbell, Portia D. Cowlings, Martha Tholanah, Mallery Jenna Robinson, Gail E. Graham, Scovia Aseru, Karine Dubé, Susan E. Cohn, Katharine J. Bar, Elizabeth Connick, Rosie Mngqbisa, Eileen P. Scully, Jamila K. Stockman, Sara Gianella</t>
+          <t>Matthew T Ollerton, Joy M. Folkvord, Kristina K. Peachman, Soumya Shashikumar, Elaine Morrison, Linda L. Jagodzinski, Sheila A. Peel, Mohammad Khreiss, Richard T. D’Aquila, Sofía Casares, Mangala Rao, Elizabeth Connick</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Charles R. Drew University of Medicine and Science (CDU), Los Angeles, CA; Joint Doctoral Program in Public Health, University of California, San Diego/San Diego State University, La Jolla, CA; Charles R. Drew University of Medicine and Science (CDU), Los Angeles, CA; Department of Education, Graduate School of Education and Psychology, Pepperdine University, Los Angeles, CA; Milton Park Clinical Research Site, Community Advisory Board, University of Zimbabwe Clinical Trials Research Center, Milton Park; ; Johns Hopkins University AIDS Clinical Trials Group Clinical Research Site, Community Advisory Board, Baltimore, MD; Joint Clinical Research Centre (JCRC)/Kampala Clinical Research Site, Kampala, Uganda; ; Infectious Diseases Division, Feinberg School of Medicine, Northwestern University, Chicago, IL; University of Pennsylvania, Philadelphia, PA; University of Arizona, Tuscon, AZ; ; Division of Infectious Diseases, Department of Medicine, Johns Hopkins University, Baltimore, MD; Division of Infectious Diseases and Global Public Health, Department of Medicine, University of California, San Diego (UCSD), La Jolla, CA; Division of Infectious Diseases and Global Public Health, Department of Medicine, University of California, San Diego (UCSD), La Jolla, CA</t>
+          <t>Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Laboratory of Adjuvant and Antigen Research, United States Military HIV Research Program, Walter Reed Army Institute of Research, Silver Spring, MD, United States; US Military Malaria Vaccine Program, Naval Medical Research Center, Silver Spring, MD, United States; Laboratory of Adjuvant and Antigen Research, United States Military HIV Research Program, Walter Reed Army Institute of Research, Silver Spring, MD, United States; Diagnostics and Countermeasure Branch, Walter Reed Army Institute of Research, Silver Spring, MD, United States; Diagnostics and Countermeasure Branch, Walter Reed Army Institute of Research, Silver Spring, MD, United States; Department of Surgery, University of Arizona, Tucson, AZ, United States; Department of Medicine, Feinberg School of Medicine, Northwestern University, Chicago, IL, United States; US Military Malaria Vaccine Program, Naval Medical Research Center, Silver Spring, MD, United States; Laboratory of Adjuvant and Antigen Research, United States Military HIV Research Program, Walter Reed Army Institute of Research, Silver Spring, MD, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4295048088</t>
+          <t>https://openalex.org/W4310040230</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A Community Call to Action to Prioritize Inclusion and Enrollment of Women in HIV Cure-related Research</t>
+          <t>HIV-1 infected humanized DRAGA mice develop HIV-specific antibodies despite lack of canonical germinal centers in secondary lymphoid tissues</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2022-09-02</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Journal of Acquired Immune Deficiency Syndromes</t>
+          <t>Frontiers in Immunology</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/qai.0000000000003084</t>
+          <t>https://doi.org/10.3389/fimmu.2022.1047277</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36083494</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36505432</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/qai.0000000000003084</t>
+          <t>https://doi.org/10.3389/fimmu.2022.1047277</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
